--- a/biology/Botanique/Confrérie_des_Fins_Gousiers_d'Anjou/Confrérie_des_Fins_Gousiers_d'Anjou.xlsx
+++ b/biology/Botanique/Confrérie_des_Fins_Gousiers_d'Anjou/Confrérie_des_Fins_Gousiers_d'Anjou.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Confr%C3%A9rie_des_Fins_Gousiers_d%27Anjou</t>
+          <t>Confrérie_des_Fins_Gousiers_d'Anjou</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La confrérie des Fins Gousiers d’Anjou est l'un des représentants du terroir français et plus particulièrement celui de l’Anjou.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Confr%C3%A9rie_des_Fins_Gousiers_d%27Anjou</t>
+          <t>Confrérie_des_Fins_Gousiers_d'Anjou</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le 5 juillet 1952 naissait à Paris la Confrérie des Fins Gouziers d’Anjou. C’est probablement parce que leurs conditions d’émigrés à la capitale les rendaient nostalgiques de leur pays d’origine qu’un groupe d’Angevins fonda cette confrérie.
 Ces déracinés, amateurs de bons vins, prenaient plaisir à se retrouver et à célébrer ensemble les vertus des vins de leur Anjou natal, particulièrement des Cabernets. Enthousiastes, ils décidèrent de fonder, avec l’Union des Cafetiers de Paris, la "Confrérie des Fins Gouziers d’Anjou ès Cabernet". Le premier grand maître fut Simon Régnard en 1952, le siège social demeurant à Paris au "café du Cabernet".
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Confr%C3%A9rie_des_Fins_Gousiers_d%27Anjou</t>
+          <t>Confrérie_des_Fins_Gousiers_d'Anjou</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Siège social</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le siège social est à Saint-Lambert-du-Lattay (Maine-et-Loire), plus particulièrement au musée de la vigne et du vin. Ce site, labellisé Musée de France, présente une collection de plus de 2 000 outils et objets retraçant l’histoire de la vigne et du vin d’Anjou-Saumur. Il est installé à Saint-Lambert du Lattay dans les anciens celliers de la Coudraye.
 </t>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Confr%C3%A9rie_des_Fins_Gousiers_d%27Anjou</t>
+          <t>Confrérie_des_Fins_Gousiers_d'Anjou</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Les voyages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La confrérie a une dimension internationale. Parmi plus de 2 000 intronisés, on trouve, outre de très nombreux Français, des Anglais, des Allemands, des Espagnols, des Belges, des Russes, des Japonais, des Norvégiens, des Sud-Africains… La confrérie s’est d’ailleurs rendue elle-même en Angleterre, au Maroc, au Canada et en Belgique où elle a, en 2003, intronisé le Bourgmestre de Bruxelles et… le Manneken Pis, qui a désormais dans sa garde-robe renommée une tenue des Fins Gousiers d’Anjou.
 </t>
